--- a/data/trans_dic/P23_1_2016_2023_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R2-Edad-trans_dic.xlsx
@@ -624,7 +624,7 @@
         <v>0.03748338315342136</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.03483185489674992</v>
+        <v>0.03483185489674993</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01222692498977323</v>
+        <v>0.01227949211679079</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003712248958804691</v>
+        <v>0.00374598192929184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03097693339330312</v>
+        <v>0.03203853460267229</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02987298531103224</v>
+        <v>0.02914246502062224</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02645437016165906</v>
+        <v>0.02481641927407443</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02002439844838677</v>
+        <v>0.01978909049016394</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04210728853931048</v>
+        <v>0.04265549549477327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0440718037038297</v>
+        <v>0.04758805839172211</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07596580185768168</v>
+        <v>0.07792533663654268</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09367729843824051</v>
+        <v>0.09606444542772985</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0543433201110417</v>
+        <v>0.05086826682312683</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05688545689905445</v>
+        <v>0.05742755034176597</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.08939329165214603</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05396146613479385</v>
+        <v>0.05396146613479386</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.107816450518917</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06747280281338483</v>
+        <v>0.06711789495263466</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03223677994568667</v>
+        <v>0.03129105635251674</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08343207617912263</v>
+        <v>0.08394460079699353</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.044223035393307</v>
+        <v>0.04725164036142094</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0822636366454069</v>
+        <v>0.08261511393197454</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04433709364677674</v>
+        <v>0.04555026078620365</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1165617025068572</v>
+        <v>0.116286098507637</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08813304033794546</v>
+        <v>0.0867770607680818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1347565225157048</v>
+        <v>0.1347274690245617</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09530563651372767</v>
+        <v>0.09549959470535758</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1189452692192722</v>
+        <v>0.1180921454783494</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07894727558365171</v>
+        <v>0.0821034554044467</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +776,7 @@
         <v>0.128566626186696</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.07953139663387697</v>
+        <v>0.07953139663387694</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.1501253636462815</v>
@@ -788,7 +788,7 @@
         <v>0.1392846029007128</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.08518566392414199</v>
+        <v>0.08518566392414198</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.10460352009461</v>
+        <v>0.1067911413456675</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05814192022766919</v>
+        <v>0.05785176403292214</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1223236588670984</v>
+        <v>0.1252030904383351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07211892475961088</v>
+        <v>0.07203968608598095</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1211051440375546</v>
+        <v>0.1204096508858981</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06909074322086195</v>
+        <v>0.07140026660839238</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1594529003066234</v>
+        <v>0.1597823291469296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1089124381057574</v>
+        <v>0.1092130593265409</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1806106163821745</v>
+        <v>0.1812227602522096</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1119012988944736</v>
+        <v>0.1123197192619807</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1587609593006105</v>
+        <v>0.1591081405202722</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1016286075972833</v>
+        <v>0.1039674758186082</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1570030263700017</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1257427216863883</v>
+        <v>0.1257427216863884</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.17970547160929</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1714599649288282</v>
+        <v>0.1725768428629697</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1342457134901845</v>
+        <v>0.1356168907821282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1286100949372868</v>
+        <v>0.1310563610727023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1071924027238747</v>
+        <v>0.1078642500518786</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1579412230367741</v>
+        <v>0.1601752825273733</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1286544713341486</v>
+        <v>0.1263984240675542</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2412099291523691</v>
+        <v>0.2365939047923596</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2003141067430839</v>
+        <v>0.1965823873757715</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1876194457878307</v>
+        <v>0.1913884880540639</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.143914983805707</v>
+        <v>0.1488409642591209</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2023743223542818</v>
+        <v>0.2034057987780654</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1639322264915954</v>
+        <v>0.1621107869772017</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.3346823544153105</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2732097777839579</v>
+        <v>0.2732097777839578</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1400652285880867</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2900499690342322</v>
+        <v>0.2888010847287563</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2408734218792144</v>
+        <v>0.241176626691207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1116264641845903</v>
+        <v>0.1101976453101139</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1351690808795566</v>
+        <v>0.1315094792552507</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2092009605824736</v>
+        <v>0.2088314969132197</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1918172122520283</v>
+        <v>0.1939793869696897</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3813532311986044</v>
+        <v>0.3788901961167307</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3117230830044664</v>
+        <v>0.3106972218716464</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1804271710675501</v>
+        <v>0.1764663337789448</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1780088177775463</v>
+        <v>0.1784648446968636</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2638002065781182</v>
+        <v>0.2637125714365726</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.236535020697185</v>
+        <v>0.2351916827338713</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3681701381038158</v>
+        <v>0.3739527771300843</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3766041724877896</v>
+        <v>0.3800282276479473</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05555158960181956</v>
+        <v>0.05792787037117647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.09212188651601423</v>
+        <v>0.0931924268801821</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2100324989435705</v>
+        <v>0.2127225182302543</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2373497706154022</v>
+        <v>0.236265518886419</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.473261121863617</v>
+        <v>0.4835299825595903</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4603245810528691</v>
+        <v>0.4676775597375309</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1137601502032623</v>
+        <v>0.116517897798313</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1349865425180294</v>
+        <v>0.1383514684287668</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2774065489946305</v>
+        <v>0.275007903436536</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2858948586452604</v>
+        <v>0.2876833029717059</v>
       </c>
     </row>
     <row r="22">
@@ -1110,13 +1110,13 @@
         <v>0.01094749789763447</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04226097005824699</v>
+        <v>0.04226097005824698</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1930834036356963</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.1925674380223516</v>
+        <v>0.1925674380223515</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4176891648080053</v>
+        <v>0.4187231556958999</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3701096010337585</v>
+        <v>0.3735370118988822</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.003011248506111332</v>
+        <v>0.003035666064928964</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.02894961418339093</v>
+        <v>0.03039138464977838</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.163385476846468</v>
+        <v>0.1654529717640507</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1690770870943873</v>
+        <v>0.1696723688011897</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5339529062575605</v>
+        <v>0.5281061244414048</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4638608169767832</v>
+        <v>0.4650622212285479</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03113971740837333</v>
+        <v>0.02920187442895397</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05716806747619559</v>
+        <v>0.05801880400616502</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2237276048369902</v>
+        <v>0.2265495003488597</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2141956424745292</v>
+        <v>0.2158082095249004</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>0.1094004155006001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.0982325421126517</v>
+        <v>0.09823254211265169</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.157319150229109</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1924966950859066</v>
+        <v>0.1935922155425106</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.174948186469735</v>
+        <v>0.1756205147130682</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0991823492206081</v>
+        <v>0.09843825104383849</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.09013864715065766</v>
+        <v>0.09102477497782381</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1482422452210958</v>
+        <v>0.1486984950277908</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1340292665893213</v>
+        <v>0.1339007272906237</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2208045904944239</v>
+        <v>0.2223303309293249</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2011394400142911</v>
+        <v>0.201789171700307</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1208826575741407</v>
+        <v>0.1205401677505838</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1074939738558148</v>
+        <v>0.1071087043942256</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1661922763723642</v>
+        <v>0.1677962366239324</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1489997439297438</v>
+        <v>0.1496490313241992</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>5129</v>
+        <v>5151</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12259</v>
+        <v>12679</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10756</v>
+        <v>10493</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>21566</v>
+        <v>20231</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>15376</v>
+        <v>15195</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>17662</v>
+        <v>17892</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17972</v>
+        <v>19406</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30064</v>
+        <v>30839</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>33728</v>
+        <v>34588</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44302</v>
+        <v>41469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43679</v>
+        <v>44095</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>39842</v>
+        <v>39633</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15373</v>
+        <v>14922</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>47018</v>
+        <v>47306</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22159</v>
+        <v>23677</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>94936</v>
+        <v>95341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43360</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>68829</v>
+        <v>68666</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42030</v>
+        <v>41383</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>75941</v>
+        <v>75925</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>47756</v>
+        <v>47853</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>137268</v>
+        <v>136283</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77208</v>
+        <v>80295</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>69878</v>
+        <v>71339</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>36028</v>
+        <v>35848</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>80790</v>
+        <v>82692</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44868</v>
+        <v>44819</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>160886</v>
+        <v>159962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>85797</v>
+        <v>88665</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106519</v>
+        <v>106739</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>67489</v>
+        <v>67675</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>119286</v>
+        <v>119690</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>69618</v>
+        <v>69878</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>210911</v>
+        <v>211372</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>126202</v>
+        <v>129107</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>110771</v>
+        <v>111493</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>93902</v>
+        <v>94861</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>83206</v>
+        <v>84788</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>78838</v>
+        <v>79332</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>204219</v>
+        <v>207108</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>184613</v>
+        <v>181376</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>155833</v>
+        <v>152851</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>140115</v>
+        <v>137505</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>121382</v>
+        <v>123821</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>105846</v>
+        <v>109469</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>261672</v>
+        <v>263006</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>235235</v>
+        <v>232622</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>138620</v>
+        <v>138023</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>146515</v>
+        <v>146699</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>55338</v>
+        <v>54629</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>82298</v>
+        <v>80070</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>203690</v>
+        <v>203330</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>233465</v>
+        <v>236096</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>182256</v>
+        <v>181078</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>189610</v>
+        <v>188986</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>89445</v>
+        <v>87481</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>108382</v>
+        <v>108659</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>256851</v>
+        <v>256766</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>287892</v>
+        <v>286257</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>123090</v>
+        <v>125024</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>153308</v>
+        <v>154702</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20985</v>
+        <v>21883</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40457</v>
+        <v>40927</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>149562</v>
+        <v>151478</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>200856</v>
+        <v>199939</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>158225</v>
+        <v>161659</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>187389</v>
+        <v>190382</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>42974</v>
+        <v>44016</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>59281</v>
+        <v>60759</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>197539</v>
+        <v>195831</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>241937</v>
+        <v>243451</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>106984</v>
+        <v>107249</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>114807</v>
+        <v>115870</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1201</v>
+        <v>1211</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13450</v>
+        <v>14120</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>107020</v>
+        <v>108375</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>131002</v>
+        <v>131463</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>136763</v>
+        <v>135265</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>143889</v>
+        <v>144261</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>12421</v>
+        <v>11648</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26561</v>
+        <v>26956</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>146545</v>
+        <v>148394</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>165960</v>
+        <v>167210</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>653028</v>
+        <v>656745</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>617455</v>
+        <v>619828</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>351017</v>
+        <v>348383</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>336342</v>
+        <v>339648</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1027544</v>
+        <v>1030706</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>973152</v>
+        <v>972218</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>749061</v>
+        <v>754237</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>709894</v>
+        <v>712187</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>427816</v>
+        <v>426604</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>401101</v>
+        <v>399663</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1151965</v>
+        <v>1163082</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1081848</v>
+        <v>1086563</v>
       </c>
     </row>
     <row r="36">
